--- a/public/baoCaoDoanhThu/2024_06_12.xlsx
+++ b/public/baoCaoDoanhThu/2024_06_12.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
   <si>
     <t>BÁO CÁO DOANH THU</t>
   </si>
@@ -114,6 +114,9 @@
   </si>
   <si>
     <t>07/06/2024</t>
+  </si>
+  <si>
+    <t>10/06/2024</t>
   </si>
   <si>
     <t>Nguời lập biểu</t>
@@ -562,10 +565,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A26" sqref="A26:K26"/>
+      <selection activeCell="A27" sqref="A27:K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -675,7 +678,7 @@
         <v>20000000.0</v>
       </c>
       <c r="K6" s="6">
-        <v>504410000.0</v>
+        <v>609282838.6875</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -705,10 +708,10 @@
         <v>397000000.0</v>
       </c>
       <c r="J7" s="6">
-        <v>484410000.0</v>
+        <v>589282838.6875</v>
       </c>
       <c r="K7" s="6">
-        <v>504410000.0</v>
+        <v>609282838.6875</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -738,10 +741,10 @@
         <v>397000000.0</v>
       </c>
       <c r="J8" s="6">
-        <v>484410000.0</v>
+        <v>589282838.6875</v>
       </c>
       <c r="K8" s="6">
-        <v>504410000.0</v>
+        <v>609282838.6875</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -771,10 +774,10 @@
         <v>397000000.0</v>
       </c>
       <c r="J9" s="6">
-        <v>484410000.0</v>
+        <v>589282838.6875</v>
       </c>
       <c r="K9" s="6">
-        <v>504410000.0</v>
+        <v>609282838.6875</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -804,10 +807,10 @@
         <v>397000000.0</v>
       </c>
       <c r="J10" s="6">
-        <v>484410000.0</v>
+        <v>589282838.6875</v>
       </c>
       <c r="K10" s="6">
-        <v>504410000.0</v>
+        <v>609282838.6875</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -837,10 +840,10 @@
         <v>397000000.0</v>
       </c>
       <c r="J11" s="6">
-        <v>484410000.0</v>
+        <v>589282838.6875</v>
       </c>
       <c r="K11" s="6">
-        <v>504410000.0</v>
+        <v>609282838.6875</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -870,10 +873,10 @@
         <v>397000000.0</v>
       </c>
       <c r="J12" s="6">
-        <v>484410000.0</v>
+        <v>589282838.6875</v>
       </c>
       <c r="K12" s="6">
-        <v>504410000.0</v>
+        <v>609282838.6875</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -903,10 +906,10 @@
         <v>397000000.0</v>
       </c>
       <c r="J13" s="6">
-        <v>484410000.0</v>
+        <v>589282838.6875</v>
       </c>
       <c r="K13" s="6">
-        <v>504410000.0</v>
+        <v>609282838.6875</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -936,10 +939,10 @@
         <v>397000000.0</v>
       </c>
       <c r="J14" s="6">
-        <v>484410000.0</v>
+        <v>589282838.6875</v>
       </c>
       <c r="K14" s="6">
-        <v>504410000.0</v>
+        <v>609282838.6875</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -969,10 +972,10 @@
         <v>397000000.0</v>
       </c>
       <c r="J15" s="6">
-        <v>484410000.0</v>
+        <v>589282838.6875</v>
       </c>
       <c r="K15" s="6">
-        <v>504410000.0</v>
+        <v>609282838.6875</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1002,10 +1005,10 @@
         <v>397000000.0</v>
       </c>
       <c r="J16" s="6">
-        <v>484410000.0</v>
+        <v>589282838.6875</v>
       </c>
       <c r="K16" s="6">
-        <v>504410000.0</v>
+        <v>609282838.6875</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1035,10 +1038,10 @@
         <v>397000000.0</v>
       </c>
       <c r="J17" s="6">
-        <v>484410000.0</v>
+        <v>589282838.6875</v>
       </c>
       <c r="K17" s="6">
-        <v>504410000.0</v>
+        <v>609282838.6875</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1068,10 +1071,10 @@
         <v>397000000.0</v>
       </c>
       <c r="J18" s="6">
-        <v>484410000.0</v>
+        <v>589282838.6875</v>
       </c>
       <c r="K18" s="6">
-        <v>504410000.0</v>
+        <v>609282838.6875</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1079,14 +1082,14 @@
         <v>29</v>
       </c>
       <c r="B19" s="6">
-        <v>14000000</v>
+        <v>40470000</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6">
-        <v>12000000</v>
+        <v>33176000</v>
       </c>
       <c r="E19" s="6">
-        <v>2000000</v>
+        <v>7294000</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>30</v>
@@ -1098,13 +1101,13 @@
         <v>14</v>
       </c>
       <c r="I19" s="6">
-        <v>87410000.0</v>
+        <v>192282838.6875</v>
       </c>
       <c r="J19" s="6">
-        <v>484410000.0</v>
+        <v>589282838.6875</v>
       </c>
       <c r="K19" s="6">
-        <v>504410000.0</v>
+        <v>609282838.6875</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1131,13 +1134,13 @@
         <v>14</v>
       </c>
       <c r="I20" s="6">
-        <v>87410000.0</v>
+        <v>192282838.6875</v>
       </c>
       <c r="J20" s="6">
-        <v>484410000.0</v>
+        <v>589282838.6875</v>
       </c>
       <c r="K20" s="6">
-        <v>504410000.0</v>
+        <v>609282838.6875</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1164,76 +1167,109 @@
         <v>14</v>
       </c>
       <c r="I21" s="6">
-        <v>87410000.0</v>
+        <v>192282838.6875</v>
       </c>
       <c r="J21" s="6">
-        <v>484410000.0</v>
+        <v>589282838.6875</v>
       </c>
       <c r="K21" s="6">
-        <v>504410000.0</v>
+        <v>609282838.6875</v>
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8" t="s">
+      <c r="A22" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8" t="s">
+      <c r="B22" s="6">
+        <v>78402838.6875</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6">
+        <v>62722270.95</v>
+      </c>
+      <c r="E22" s="6">
+        <v>15680567.7375</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" s="6">
+        <v>192282838.6875</v>
+      </c>
+      <c r="J22" s="6">
+        <v>589282838.6875</v>
+      </c>
+      <c r="K22" s="6">
+        <v>609282838.6875</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8" t="s">
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9" t="s">
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="I4:K4"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="I25:J25"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="F26:G26"/>
     <mergeCell ref="I26:J26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="I27:J27"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
